--- a/uniaxial-loading-unloading/time_strain_stress/0d03_1d5.xlsx
+++ b/uniaxial-loading-unloading/time_strain_stress/0d03_1d5.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="3" uniqueCount="3">
   <si>
     <t>Time_s</t>
   </si>
@@ -91,640 +91,640 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="B2" s="0">
-        <v>1</v>
+        <v>1.0005999999999999</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.66363636363636369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.5</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="B3" s="0">
-        <v>1.0149999999999999</v>
+        <v>1.0156000000000001</v>
       </c>
       <c r="C3" s="0">
-        <v>4.1933475625823444</v>
+        <v>4.3131443850267388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="B4" s="0">
-        <v>1.03</v>
+        <v>1.0306</v>
       </c>
       <c r="C4" s="0">
-        <v>6.8200068511198939</v>
+        <v>6.9145421637186351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="B5" s="0">
-        <v>1.0449999999999999</v>
+        <v>1.0456000000000001</v>
       </c>
       <c r="C5" s="0">
-        <v>8.9894041282389097</v>
+        <v>9.0673270259152616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="B6" s="0">
-        <v>1.0600000000000001</v>
+        <v>1.0606</v>
       </c>
       <c r="C6" s="0">
-        <v>10.898734650856388</v>
+        <v>10.971521184697657</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="B7" s="0">
-        <v>1.075</v>
+        <v>1.0756000000000001</v>
       </c>
       <c r="C7" s="0">
-        <v>12.63010083443127</v>
+        <v>12.696953517071167</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>3</v>
+        <v>3.02</v>
       </c>
       <c r="B8" s="0">
-        <v>1.0900000000000001</v>
+        <v>1.0906</v>
       </c>
       <c r="C8" s="0">
-        <v>14.206044795783924</v>
+        <v>14.270946935417527</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>3.5</v>
+        <v>3.52</v>
       </c>
       <c r="B9" s="0">
-        <v>1.105</v>
+        <v>1.1055999999999999</v>
       </c>
       <c r="C9" s="0">
-        <v>15.692099956082561</v>
+        <v>15.751028383381326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>4</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="B10" s="0">
-        <v>1.1200000000000001</v>
+        <v>1.1206</v>
       </c>
       <c r="C10" s="0">
-        <v>17.050907158541936</v>
+        <v>17.107351707116418</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>4.5</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="B11" s="0">
-        <v>1.135</v>
+        <v>1.1355999999999999</v>
       </c>
       <c r="C11" s="0">
-        <v>18.338850592885368</v>
+        <v>18.38932949403538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>5</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="B12" s="0">
-        <v>1.1499999999999999</v>
+        <v>1.1506000000000001</v>
       </c>
       <c r="C12" s="0">
-        <v>19.54783627580149</v>
+        <v>19.594867132867133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>5.5</v>
+        <v>5.5199999999999996</v>
       </c>
       <c r="B13" s="0">
-        <v>1.165</v>
+        <v>1.1656</v>
       </c>
       <c r="C13" s="0">
-        <v>20.690794554238028</v>
+        <v>20.739956396544638</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>6</v>
+        <v>6.0199999999999996</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1799999999999999</v>
+        <v>1.1806000000000001</v>
       </c>
       <c r="C14" s="0">
-        <v>21.759987878787875</v>
+        <v>21.800995475113126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>6.5</v>
+        <v>6.5199999999999996</v>
       </c>
       <c r="B15" s="0">
-        <v>1.1950000000000001</v>
+        <v>1.1956</v>
       </c>
       <c r="C15" s="0">
-        <v>22.786561616161617</v>
+        <v>22.826991361579598</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>7</v>
+        <v>7.0199999999999996</v>
       </c>
       <c r="B16" s="0">
-        <v>1.21</v>
+        <v>1.2105999999999999</v>
       </c>
       <c r="C16" s="0">
-        <v>23.746892050944215</v>
+        <v>23.787691484985608</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>7.5</v>
+        <v>7.5199999999999996</v>
       </c>
       <c r="B17" s="0">
-        <v>1.2250000000000001</v>
+        <v>1.2256</v>
       </c>
       <c r="C17" s="0">
-        <v>24.678448660518214</v>
+        <v>24.714585767174004</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>8</v>
+        <v>8.0199999999999996</v>
       </c>
       <c r="B18" s="0">
-        <v>1.24</v>
+        <v>1.2405999999999999</v>
       </c>
       <c r="C18" s="0">
-        <v>25.559563812033378</v>
+        <v>25.59279884821062</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>8.5</v>
+        <v>8.5199999999999996</v>
       </c>
       <c r="B19" s="0">
-        <v>1.2549999999999999</v>
+        <v>1.2556</v>
       </c>
       <c r="C19" s="0">
-        <v>26.405914975845398</v>
+        <v>26.437189633895521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>9</v>
+        <v>9.0199999999999996</v>
       </c>
       <c r="B20" s="0">
-        <v>1.27</v>
+        <v>1.2706</v>
       </c>
       <c r="C20" s="0">
-        <v>27.212598506807197</v>
+        <v>27.246765117235714</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>9.5</v>
+        <v>9.5199999999999996</v>
       </c>
       <c r="B21" s="0">
-        <v>1.2849999999999999</v>
+        <v>1.2856000000000001</v>
       </c>
       <c r="C21" s="0">
-        <v>27.988691260430379</v>
+        <v>28.021705470999596</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>10</v>
+        <v>10.02</v>
       </c>
       <c r="B22" s="0">
-        <v>1.3</v>
+        <v>1.3006</v>
       </c>
       <c r="C22" s="0">
-        <v>28.722960035133948</v>
+        <v>28.754000822706708</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>10.5</v>
+        <v>10.52</v>
       </c>
       <c r="B23" s="0">
-        <v>1.3149999999999999</v>
+        <v>1.3155999999999999</v>
       </c>
       <c r="C23" s="0">
-        <v>29.43355169082125</v>
+        <v>29.456020567667629</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>11</v>
+        <v>11.02</v>
       </c>
       <c r="B24" s="0">
-        <v>1.3300000000000001</v>
+        <v>1.3306</v>
       </c>
       <c r="C24" s="0">
-        <v>30.126358893280631</v>
+        <v>30.150790621143564</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>11.5</v>
+        <v>11.52</v>
       </c>
       <c r="B25" s="0">
-        <v>1.345</v>
+        <v>1.3455999999999999</v>
       </c>
       <c r="C25" s="0">
-        <v>30.781859639877037</v>
+        <v>30.807717811600174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>12</v>
+        <v>12.02</v>
       </c>
       <c r="B26" s="0">
-        <v>1.3599999999999999</v>
+        <v>1.3606</v>
       </c>
       <c r="C26" s="0">
-        <v>31.395663065436974</v>
+        <v>31.413347593582891</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>12.5</v>
+        <v>12.52</v>
       </c>
       <c r="B27" s="0">
-        <v>1.375</v>
+        <v>1.3755999999999999</v>
       </c>
       <c r="C27" s="0">
-        <v>32.005814317083875</v>
+        <v>32.025730974907447</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>13</v>
+        <v>13.02</v>
       </c>
       <c r="B28" s="0">
-        <v>1.3900000000000001</v>
+        <v>1.3906000000000001</v>
       </c>
       <c r="C28" s="0">
-        <v>32.604440931049616</v>
+        <v>32.62702756067462</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>13.5</v>
+        <v>13.52</v>
       </c>
       <c r="B29" s="0">
-        <v>1.405</v>
+        <v>1.4056</v>
       </c>
       <c r="C29" s="0">
-        <v>33.169001844532275</v>
+        <v>33.189136980666404</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>14</v>
+        <v>14.02</v>
       </c>
       <c r="B30" s="0">
-        <v>1.4199999999999999</v>
+        <v>1.4205999999999999</v>
       </c>
       <c r="C30" s="0">
-        <v>33.715478787878787</v>
+        <v>33.74013903743316</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>14.5</v>
+        <v>14.52</v>
       </c>
       <c r="B31" s="0">
-        <v>1.4350000000000001</v>
+        <v>1.4356</v>
       </c>
       <c r="C31" s="0">
-        <v>34.243882652613081</v>
+        <v>34.265865076100376</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>15</v>
+        <v>15.02</v>
       </c>
       <c r="B32" s="0">
-        <v>1.45</v>
+        <v>1.4505999999999999</v>
       </c>
       <c r="C32" s="0">
-        <v>34.752609574000871</v>
+        <v>34.776232003290829</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>15.5</v>
+        <v>15.52</v>
       </c>
       <c r="B33" s="0">
-        <v>1.4649999999999999</v>
+        <v>1.4656</v>
       </c>
       <c r="C33" s="0">
-        <v>35.238572683355287</v>
+        <v>35.264412176059238</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>16</v>
+        <v>16.02</v>
       </c>
       <c r="B34" s="0">
-        <v>1.48</v>
+        <v>1.4805999999999999</v>
       </c>
       <c r="C34" s="0">
-        <v>35.720150900307416</v>
+        <v>35.744517482517494</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>16.5</v>
+        <v>16.52</v>
       </c>
       <c r="B35" s="0">
-        <v>1.4950000000000001</v>
+        <v>1.4956</v>
       </c>
       <c r="C35" s="0">
-        <v>36.177334887334879</v>
+        <v>36.195917729329501</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>16.954000000000001</v>
+        <v>16.974</v>
       </c>
       <c r="B36" s="0">
-        <v>1.4813800000000001</v>
+        <v>1.4819800000000001</v>
       </c>
       <c r="C36" s="0">
-        <v>33.980006731959293</v>
+        <v>33.909252832728775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>17.454000000000001</v>
+        <v>17.474</v>
       </c>
       <c r="B37" s="0">
-        <v>1.46638</v>
+        <v>1.46698</v>
       </c>
       <c r="C37" s="0">
-        <v>31.484380085439362</v>
+        <v>31.401139448786516</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>17.954000000000001</v>
+        <v>17.974</v>
       </c>
       <c r="B38" s="0">
-        <v>1.4513800000000001</v>
+        <v>1.45198</v>
       </c>
       <c r="C38" s="0">
-        <v>29.55183814428873</v>
+        <v>29.479881081485363</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>18.454000000000001</v>
+        <v>18.474</v>
       </c>
       <c r="B39" s="0">
-        <v>1.43638</v>
+        <v>1.4369799999999999</v>
       </c>
       <c r="C39" s="0">
-        <v>27.865203098175421</v>
+        <v>27.801176470588242</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>18.954000000000001</v>
+        <v>18.974</v>
       </c>
       <c r="B40" s="0">
-        <v>1.4213800000000001</v>
+        <v>1.42198</v>
       </c>
       <c r="C40" s="0">
-        <v>26.299600111789829</v>
+        <v>26.237044613140874</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>19.454000000000001</v>
+        <v>19.474</v>
       </c>
       <c r="B41" s="0">
-        <v>1.4063800000000002</v>
+        <v>1.4069800000000001</v>
       </c>
       <c r="C41" s="0">
-        <v>24.835004830917871</v>
+        <v>24.779213567181479</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>19.954000000000001</v>
+        <v>19.974</v>
       </c>
       <c r="B42" s="0">
-        <v>1.3913800000000001</v>
+        <v>1.39198</v>
       </c>
       <c r="C42" s="0">
-        <v>23.42651598993891</v>
+        <v>23.370547099958863</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>20.454000000000001</v>
+        <v>20.474</v>
       </c>
       <c r="B43" s="0">
-        <v>1.3763800000000002</v>
+        <v>1.3769800000000001</v>
       </c>
       <c r="C43" s="0">
-        <v>22.047876392382317</v>
+        <v>21.994654276205086</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>20.954000000000001</v>
+        <v>20.974</v>
       </c>
       <c r="B44" s="0">
-        <v>1.36138</v>
+        <v>1.36198</v>
       </c>
       <c r="C44" s="0">
-        <v>20.718608376252643</v>
+        <v>20.66539246849408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>21.454000000000001</v>
+        <v>21.474</v>
       </c>
       <c r="B45" s="0">
-        <v>1.3463800000000001</v>
+        <v>1.3469800000000001</v>
       </c>
       <c r="C45" s="0">
-        <v>19.412733580867965</v>
+        <v>19.359776373359264</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>21.954000000000001</v>
+        <v>21.974</v>
       </c>
       <c r="B46" s="0">
-        <v>1.33138</v>
+        <v>1.3319799999999999</v>
       </c>
       <c r="C46" s="0">
-        <v>18.118052541222504</v>
+        <v>18.066409633147604</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>22.454000000000001</v>
+        <v>22.474</v>
       </c>
       <c r="B47" s="0">
-        <v>1.3163800000000001</v>
+        <v>1.31698</v>
       </c>
       <c r="C47" s="0">
-        <v>16.839351938355893</v>
+        <v>16.787491492464756</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>22.954000000000001</v>
+        <v>22.974</v>
       </c>
       <c r="B48" s="0">
-        <v>1.30138</v>
+        <v>1.3019799999999999</v>
       </c>
       <c r="C48" s="0">
-        <v>15.567195272886968</v>
+        <v>15.517126509853785</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>23.454000000000001</v>
+        <v>23.474</v>
       </c>
       <c r="B49" s="0">
-        <v>1.2863800000000001</v>
+        <v>1.28698</v>
       </c>
       <c r="C49" s="0">
-        <v>14.28412129197109</v>
+        <v>14.232954264986351</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>23.954000000000001</v>
+        <v>23.974</v>
       </c>
       <c r="B50" s="0">
-        <v>1.2713800000000002</v>
+        <v>1.2719800000000001</v>
       </c>
       <c r="C50" s="0">
-        <v>13.016109074939113</v>
+        <v>12.964690176134027</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>24.454000000000001</v>
+        <v>24.474</v>
       </c>
       <c r="B51" s="0">
-        <v>1.2563800000000001</v>
+        <v>1.25698</v>
       </c>
       <c r="C51" s="0">
-        <v>11.729060965385074</v>
+        <v>11.674595190905356</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>24.954000000000001</v>
+        <v>24.974</v>
       </c>
       <c r="B52" s="0">
-        <v>1.2413800000000001</v>
+        <v>1.2419800000000001</v>
       </c>
       <c r="C52" s="0">
-        <v>10.444815746396772</v>
+        <v>10.393321491342881</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>25.454000000000001</v>
+        <v>25.474</v>
       </c>
       <c r="B53" s="0">
-        <v>1.22638</v>
+        <v>1.22698</v>
       </c>
       <c r="C53" s="0">
-        <v>9.1533409190721446</v>
+        <v>9.1003092629295832</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>25.954000000000001</v>
+        <v>25.974</v>
       </c>
       <c r="B54" s="0">
-        <v>1.2113800000000001</v>
+        <v>1.2119800000000001</v>
       </c>
       <c r="C54" s="0">
-        <v>7.8334498343114909</v>
+        <v>7.7793324856961226</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>26.454000000000001</v>
+        <v>26.474</v>
       </c>
       <c r="B55" s="0">
-        <v>1.19638</v>
+        <v>1.1969799999999999</v>
       </c>
       <c r="C55" s="0">
-        <v>6.5101871681239256</v>
+        <v>6.4573766874836398</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>26.954000000000001</v>
+        <v>26.974</v>
       </c>
       <c r="B56" s="0">
-        <v>1.1813800000000001</v>
+        <v>1.18198</v>
       </c>
       <c r="C56" s="0">
-        <v>5.1709653052261739</v>
+        <v>5.1156523690213538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>27.454000000000001</v>
+        <v>27.474</v>
       </c>
       <c r="B57" s="0">
-        <v>1.1663800000000002</v>
+        <v>1.1669800000000001</v>
       </c>
       <c r="C57" s="0">
-        <v>3.8120298638559507</v>
+        <v>3.756129538910288</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>27.954000000000001</v>
+        <v>27.974</v>
       </c>
       <c r="B58" s="0">
-        <v>1.1513800000000001</v>
+        <v>1.15198</v>
       </c>
       <c r="C58" s="0">
-        <v>2.4238208967141772</v>
+        <v>2.3693089263677503</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>28.454000000000001</v>
+        <v>28.474</v>
       </c>
       <c r="B59" s="0">
-        <v>1.1363800000000002</v>
+        <v>1.1369800000000001</v>
       </c>
       <c r="C59" s="0">
-        <v>1.0061252046153233</v>
+        <v>0.950022250476796</v>
       </c>
     </row>
   </sheetData>
